--- a/formatted/candidates/candidates-2/documents/candidates-documents-coc.xlsx
+++ b/formatted/candidates/candidates-2/documents/candidates-documents-coc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-2/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D5EB81-2E5E-3245-BBFE-051EF103E631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D28068-8DDA-6F44-BB9D-6BABCAD84253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="500" windowWidth="42820" windowHeight="26100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29093,7 +29093,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1260" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
